--- a/ApplicationTestData/APITestData.xlsx
+++ b/ApplicationTestData/APITestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10104"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahul.patidar\Documents\RestAssuredFW\RestAssuredTest\ApplicationTestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulpatidar/Desktop/RestAssuredFrameworkApril2020/ApplicationTestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A25A524-AE2E-449A-92AE-11ABD48ACDE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCED472-5331-E34C-BB01-8DE0075354C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3828" yWindow="3396" windowWidth="17280" windowHeight="8964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3820" yWindow="3400" windowWidth="17280" windowHeight="8960" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WeatherInfo" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>city</t>
   </si>
@@ -107,18 +107,6 @@
   </si>
   <si>
     <t>actor</t>
-  </si>
-  <si>
-    <t>peter</t>
-  </si>
-  <si>
-    <t>architect</t>
-  </si>
-  <si>
-    <t>james</t>
-  </si>
-  <si>
-    <t>police</t>
   </si>
   <si>
     <t>NewDelhi</t>
@@ -450,20 +438,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,7 +474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -509,7 +497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -532,9 +520,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -562,15 +550,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174C6BE5-6533-43BE-A592-2611A87CE617}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="A4:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -578,7 +566,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -586,32 +574,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{61ee2a67-55c4-4a11-b154-19fc8b11d809}" enabled="1" method="Standard" siteId="{29208c38-8fc5-4a03-89e2-9b6e8e4b388b}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>